--- a/scripts/reports/mutations.xlsx
+++ b/scripts/reports/mutations.xlsx
@@ -34088,7 +34088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34104,17 +34104,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>nt_position_on_genome</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>gene_name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>nt_position_on_gene</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>gene_name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>nt_position_on_genome</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -34445,97 +34445,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498</v>
+        <v>2969</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2C/X</t>
+          <t>VP1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4681</v>
+        <v>427</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -34551,101 +34551,101 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Increase </t>
+          <t xml:space="preserve">Decrease </t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3053</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VP1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>511</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>171</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2C/X</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4354</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>57</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -34775,19 +34775,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>375</v>
+        <v>452</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>VP1</t>
+          <t>5UTR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2917</v>
+        <v>452</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -34822,45 +34822,45 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -34875,226 +34875,6 @@
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Increase </t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>375</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3C/Protease</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5872</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>125</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Increase </t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>452</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5UTR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>452</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>151</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
         <v>0</v>
       </c>
     </row>
